--- a/kqms 세팅 계산용.xlsx
+++ b/kqms 세팅 계산용.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sungh\Python Workspace\HSR_DMG_Simulator Ver0.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B1D01B-4D87-4091-9F24-14EB916B8DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF57CF7-36E0-4E6F-BE4F-F04AE9BD373D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>공격력%</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,12 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>속성피해증가</t>
-  </si>
-  <si>
-    <t>공격력%</t>
-  </si>
-  <si>
     <t>치명타피해</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
   <si>
     <t>비율</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도</t>
   </si>
   <si>
     <t>조건3: 파티에는 반드시 1캐릭 이상의 탱커 또는 힐러 캐릭터가 있어야함</t>
@@ -371,6 +362,12 @@
   <si>
     <t>음월(V3)/정운/은랑/나찰</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력%</t>
+  </si>
+  <si>
+    <t>에너지회복효율</t>
   </si>
 </sst>
 </file>
@@ -751,7 +748,7 @@
   <dimension ref="B2:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -873,15 +870,15 @@
         <v>2</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
         <f>IF($H$16="속도", 25, 0)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" ref="G12:G26" si="0">C12*(D12+E12)+F12</f>
-        <v>34.200000000000003</v>
+        <v>6.8999999999999995</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>44</v>
@@ -948,7 +945,7 @@
         <v>390.10375399999998</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>24</v>
@@ -997,17 +994,19 @@
       <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
       <c r="F16" s="4">
         <f xml:space="preserve"> IF($H$14="체력%", 0.432, 0) + IF($H$16="체력%", 0.432, 0)+ IF($H$18="체력%", 0.432, 0)+ IF($H$20="체력%", 0.432, 0)</f>
-        <v>0</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="0"/>
-        <v>7.7759999999999996E-2</v>
+        <v>1.33056</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>34</v>
@@ -1034,11 +1033,11 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4">
         <f xml:space="preserve"> IF($H$14="공격력%", 0.432, 0) + IF($H$16="공격력%", 0.432, 0)+ IF($H$18="공격력%", 0.432, 0)+ IF($H$20="공격력%", 0.432, 0)</f>
-        <v>0.432</v>
+        <v>0</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="0"/>
-        <v>0.50975999999999999</v>
+        <v>7.7759999999999996E-2</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>20</v>
@@ -1064,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="4">
         <f xml:space="preserve"> IF($H$14="방어력%", 0.54, 0) + IF($H$16="방어력%", 0.54, 0)+ IF($H$18="방어력%", 0.54, 0)+ IF($H$20="방어력%", 0.54, 0)</f>
@@ -1072,10 +1071,10 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="0"/>
-        <v>0.19439999999999999</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>32</v>
@@ -1137,7 +1136,7 @@
         <v>7.7759999999999996E-2</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>8</v>
@@ -1179,16 +1178,14 @@
       <c r="D22" s="3">
         <v>2</v>
       </c>
-      <c r="E22" s="3">
-        <v>12</v>
-      </c>
+      <c r="E22" s="3"/>
       <c r="F22" s="4">
         <f>IF($H$14="치명타확률", 0.324, 0)</f>
         <v>0</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="0"/>
-        <v>0.40823999999999999</v>
+        <v>5.8319999999999997E-2</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>26</v>
@@ -1208,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F23" s="4">
         <f>IF($H$14="치명타피해", 0.648, 0)</f>
@@ -1216,7 +1213,7 @@
       </c>
       <c r="G23" s="6">
         <f t="shared" si="0"/>
-        <v>1.1728800000000001</v>
+        <v>1.3478400000000001</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>5</v>
@@ -1234,11 +1231,11 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4">
         <f xml:space="preserve"> IF($H$20="에너지회복효율", 0.194, 0)</f>
-        <v>0</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>2</v>
@@ -1280,11 +1277,11 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f>IF($H$18="속성피해증가", 0.388, 0)</f>
-        <v>0.38800000000000001</v>
+        <v>0</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="0"/>
-        <v>0.38800000000000001</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>36</v>
@@ -1301,7 +1298,7 @@
       </c>
       <c r="L29">
         <f>(L12+M12+N12) * (1+C16*(D16+E16)+F16+L15+M15+N15)+C13*(D13+E13)+F13</f>
-        <v>3175.9902300000003</v>
+        <v>5959.7118299999993</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.45">
@@ -1310,7 +1307,7 @@
       </c>
       <c r="L30">
         <f>(L13+M13+N13) * (1+C17*(D17+E17)+F17+L16+M16+N16)+C14*(D14+E14)+F14</f>
-        <v>2835.8569955999997</v>
+        <v>2282.6118755999996</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.45">
@@ -1319,7 +1316,7 @@
       </c>
       <c r="L31">
         <f>(L14+M14+N14) * (1+C18*(D18+E18)+F18+L17+M17+N17)+C15*(D15+E15)+F15</f>
-        <v>1289.092864</v>
+        <v>1335.1729539999999</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.45">
@@ -1328,7 +1325,7 @@
       </c>
       <c r="L32">
         <f>(L18+M18+N18) +C12*(D12+E12)+F12</f>
-        <v>133.19999999999999</v>
+        <v>105.9</v>
       </c>
     </row>
     <row r="33" spans="11:12" x14ac:dyDescent="0.45">
@@ -1346,7 +1343,7 @@
       </c>
       <c r="L34" s="5">
         <f>(L19+M19+N19)+F24</f>
-        <v>1</v>
+        <v>1.194</v>
       </c>
     </row>
     <row r="35" spans="11:12" x14ac:dyDescent="0.45">
@@ -1364,7 +1361,7 @@
       </c>
       <c r="L36" s="1">
         <f>L21+M21+N21+F26</f>
-        <v>0.38800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="11:12" x14ac:dyDescent="0.45">
@@ -1373,7 +1370,7 @@
       </c>
       <c r="L37" s="5">
         <f>L24+M24+N24+C22*(D22+E22) +F22 + 0.05</f>
-        <v>0.57824000000000009</v>
+        <v>0.22831999999999997</v>
       </c>
     </row>
     <row r="38" spans="11:12" x14ac:dyDescent="0.45">
@@ -1382,7 +1379,7 @@
       </c>
       <c r="L38" s="5">
         <f>L25+M25+N25+C23*(D23+E23) +F23 + 0.5</f>
-        <v>1.6728800000000001</v>
+        <v>1.8478400000000001</v>
       </c>
     </row>
     <row r="39" spans="11:12" x14ac:dyDescent="0.45">
@@ -1443,7 +1440,7 @@
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C2" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1451,7 +1448,7 @@
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C3" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1459,7 +1456,7 @@
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C4" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -1467,7 +1464,7 @@
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C5" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1481,27 +1478,27 @@
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="H8" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D9" s="3">
         <v>1632874</v>
@@ -1511,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H9" s="3">
         <v>1634465</v>
@@ -1524,7 +1521,7 @@
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C10" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3">
         <v>1544324</v>
@@ -1534,7 +1531,7 @@
         <v>0.94577046361201167</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3">
         <v>1498971</v>
@@ -1547,7 +1544,7 @@
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D11" s="3">
         <v>1451462</v>
@@ -1557,7 +1554,7 @@
         <v>0.8889001845825214</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H11" s="3">
         <v>1475332</v>
@@ -1570,7 +1567,7 @@
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C12" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3">
         <v>1343929</v>
@@ -1580,7 +1577,7 @@
         <v>0.82304513391725265</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H12" s="3">
         <v>1431093</v>
@@ -1593,7 +1590,7 @@
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3">
         <v>1324090</v>
@@ -1603,7 +1600,7 @@
         <v>0.81089539058126958</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H13" s="3">
         <v>1418259</v>
@@ -1616,7 +1613,7 @@
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D14" s="3">
         <v>1228171</v>
@@ -1626,7 +1623,7 @@
         <v>0.7521529524017162</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H14" s="3">
         <v>1381976</v>

--- a/kqms 세팅 계산용.xlsx
+++ b/kqms 세팅 계산용.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sungh\Python Workspace\HSR_DMG_Simulator Ver0.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sungh\PythonWorkspace\HSR_DMG_Simulator Ver0.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF57CF7-36E0-4E6F-BE4F-F04AE9BD373D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A12892-20C7-4D58-A24F-1C59687C5AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
   <si>
     <t>공격력%</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,10 +364,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체력%</t>
-  </si>
-  <si>
-    <t>에너지회복효율</t>
+    <t>속도</t>
+  </si>
+  <si>
+    <t>속성피해증가</t>
+  </si>
+  <si>
+    <t>공격력%</t>
   </si>
 </sst>
 </file>
@@ -748,7 +751,7 @@
   <dimension ref="B2:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -869,16 +872,14 @@
       <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3">
         <f>IF($H$16="속도", 25, 0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" ref="G12:G26" si="0">C12*(D12+E12)+F12</f>
-        <v>6.8999999999999995</v>
+        <v>29.6</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>44</v>
@@ -994,16 +995,14 @@
       <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="3">
-        <v>10</v>
-      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="4">
         <f xml:space="preserve"> IF($H$14="체력%", 0.432, 0) + IF($H$16="체력%", 0.432, 0)+ IF($H$18="체력%", 0.432, 0)+ IF($H$20="체력%", 0.432, 0)</f>
-        <v>0.86399999999999999</v>
+        <v>0</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="0"/>
-        <v>1.33056</v>
+        <v>7.7759999999999996E-2</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>66</v>
@@ -1030,14 +1029,16 @@
       <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
       <c r="F17" s="4">
         <f xml:space="preserve"> IF($H$14="공격력%", 0.432, 0) + IF($H$16="공격력%", 0.432, 0)+ IF($H$18="공격력%", 0.432, 0)+ IF($H$20="공격력%", 0.432, 0)</f>
-        <v>0</v>
+        <v>0.432</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="0"/>
-        <v>7.7759999999999996E-2</v>
+        <v>0.58752000000000004</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>20</v>
@@ -1062,19 +1063,17 @@
       <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="4">
         <f xml:space="preserve"> IF($H$14="방어력%", 0.54, 0) + IF($H$16="방어력%", 0.54, 0)+ IF($H$18="방어력%", 0.54, 0)+ IF($H$20="방어력%", 0.54, 0)</f>
         <v>0</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="0"/>
-        <v>0.24299999999999999</v>
+        <v>9.7199999999999995E-2</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>32</v>
@@ -1136,7 +1135,7 @@
         <v>7.7759999999999996E-2</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>8</v>
@@ -1178,14 +1177,16 @@
       <c r="D22" s="3">
         <v>2</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3">
+        <v>12</v>
+      </c>
       <c r="F22" s="4">
         <f>IF($H$14="치명타확률", 0.324, 0)</f>
         <v>0</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="0"/>
-        <v>5.8319999999999997E-2</v>
+        <v>0.40823999999999999</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>26</v>
@@ -1231,20 +1232,24 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4">
         <f xml:space="preserve"> IF($H$20="에너지회복효율", 0.194, 0)</f>
-        <v>0.19400000000000001</v>
+        <v>0</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="0"/>
-        <v>0.19400000000000001</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L24" s="4">
-        <v>0.12</v>
-      </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B25" s="2" t="s">
@@ -1277,11 +1282,11 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f>IF($H$18="속성피해증가", 0.388, 0)</f>
-        <v>0</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>36</v>
@@ -1298,7 +1303,7 @@
       </c>
       <c r="L29">
         <f>(L12+M12+N12) * (1+C16*(D16+E16)+F16+L15+M15+N15)+C13*(D13+E13)+F13</f>
-        <v>5959.7118299999993</v>
+        <v>3175.9902300000003</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.45">
@@ -1307,7 +1312,7 @@
       </c>
       <c r="L30">
         <f>(L13+M13+N13) * (1+C17*(D17+E17)+F17+L16+M16+N16)+C14*(D14+E14)+F14</f>
-        <v>2282.6118755999996</v>
+        <v>2935.4411172</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.45">
@@ -1316,7 +1321,7 @@
       </c>
       <c r="L31">
         <f>(L14+M14+N14) * (1+C18*(D18+E18)+F18+L17+M17+N17)+C15*(D15+E15)+F15</f>
-        <v>1335.1729539999999</v>
+        <v>1196.9326840000001</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.45">
@@ -1325,7 +1330,7 @@
       </c>
       <c r="L32">
         <f>(L18+M18+N18) +C12*(D12+E12)+F12</f>
-        <v>105.9</v>
+        <v>128.6</v>
       </c>
     </row>
     <row r="33" spans="11:12" x14ac:dyDescent="0.45">
@@ -1343,7 +1348,7 @@
       </c>
       <c r="L34" s="5">
         <f>(L19+M19+N19)+F24</f>
-        <v>1.194</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="11:12" x14ac:dyDescent="0.45">
@@ -1361,7 +1366,7 @@
       </c>
       <c r="L36" s="1">
         <f>L21+M21+N21+F26</f>
-        <v>0</v>
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="37" spans="11:12" x14ac:dyDescent="0.45">
@@ -1370,7 +1375,7 @@
       </c>
       <c r="L37" s="5">
         <f>L24+M24+N24+C22*(D22+E22) +F22 + 0.05</f>
-        <v>0.22831999999999997</v>
+        <v>0.86824000000000001</v>
       </c>
     </row>
     <row r="38" spans="11:12" x14ac:dyDescent="0.45">
